--- a/malfiler/Studiebarometeret_2022_vars.xlsx
+++ b/malfiler/Studiebarometeret_2022_vars.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hioa365-my.sharepoint.com/personal/kyrremat_oslomet_no/Documents/Dokumenter/statistikk/datafiler/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hioa365-my.sharepoint.com/personal/kyrremat_oslomet_no/Documents/Dokumenter/statistikk/Studentsvar/malfiler/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="98" documentId="8_{C138724C-99B5-4021-A7A5-493A6B263C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CFA0E4E2-816E-46A0-8773-C4D5BC0E7DF6}"/>
+  <xr:revisionPtr revIDLastSave="101" documentId="8_{C138724C-99B5-4021-A7A5-493A6B263C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01C490FD-1C4F-4AC5-88D9-87EEE593888E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FA7D840D-9D53-4472-AAA2-57617C6B2F63}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="143">
   <si>
     <t>Variabel</t>
   </si>
@@ -457,6 +457,12 @@
   </si>
   <si>
     <t>overord_altialt_13</t>
+  </si>
+  <si>
+    <t>Format</t>
+  </si>
+  <si>
+    <t>Utheving</t>
   </si>
 </sst>
 </file>
@@ -822,10 +828,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11175198-0FD8-474C-BC80-0C4ED23782B1}">
-  <dimension ref="A1:E71"/>
+  <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -837,7 +843,7 @@
     <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -853,8 +859,14 @@
       <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>72</v>
       </c>
@@ -865,7 +877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -874,7 +886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4"/>
       <c r="B4"/>
       <c r="C4" t="s">
@@ -887,7 +899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -899,7 +911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6"/>
       <c r="B6"/>
       <c r="C6" t="s">
@@ -912,7 +924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7"/>
       <c r="B7"/>
       <c r="C7" t="s">
@@ -925,7 +937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8"/>
       <c r="B8"/>
       <c r="C8" t="s">
@@ -938,7 +950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9"/>
       <c r="B9"/>
       <c r="C9" t="s">
@@ -951,7 +963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10" t="s">
@@ -964,7 +976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11" t="s">
@@ -977,7 +989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12" t="s">
@@ -990,7 +1002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13" t="s">
@@ -1003,7 +1015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14" t="s">
@@ -1016,7 +1028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15" t="s">
@@ -1029,7 +1041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16" t="s">

--- a/malfiler/Studiebarometeret_2022_vars.xlsx
+++ b/malfiler/Studiebarometeret_2022_vars.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hioa365-my.sharepoint.com/personal/kyrremat_oslomet_no/Documents/Dokumenter/statistikk/Studentsvar/malfiler/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="101" documentId="8_{C138724C-99B5-4021-A7A5-493A6B263C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01C490FD-1C4F-4AC5-88D9-87EEE593888E}"/>
+  <xr:revisionPtr revIDLastSave="145" documentId="8_{C138724C-99B5-4021-A7A5-493A6B263C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D4BFCB0-DC21-4A8D-971A-39D14A0E199F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FA7D840D-9D53-4472-AAA2-57617C6B2F63}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="124">
   <si>
     <t>Variabel</t>
   </si>
@@ -192,24 +192,6 @@
     <t>INDEKS ORGANISERING</t>
   </si>
   <si>
-    <t>FAGLIG ANSATTES FORVENTNINGER</t>
-  </si>
-  <si>
-    <t>Jeg opplever at de faglig ansatte stiller klare forventninger til meg som student</t>
-  </si>
-  <si>
-    <t>De faglig ansatte forventer at jeg stiller forberedt til organiserte læringsaktiviteter</t>
-  </si>
-  <si>
-    <t>De faglig ansatte forventer at jeg deltar aktivt i organiserte læringsaktiviteter</t>
-  </si>
-  <si>
-    <t>De faglig ansatte har høye faglige ambisjoner på vegne av meg som student</t>
-  </si>
-  <si>
-    <t>INDEKS FAGLIG ANSATTES FORVENTINGER</t>
-  </si>
-  <si>
     <t>PRAKSIS</t>
   </si>
   <si>
@@ -252,9 +234,6 @@
     <t>Betalt arbeid</t>
   </si>
   <si>
-    <t>Studiebarometeret 2021</t>
-  </si>
-  <si>
     <t>I hvilken grad er du enig i de følgende påstandene</t>
   </si>
   <si>
@@ -378,21 +357,6 @@
     <t>indx_organ4</t>
   </si>
   <si>
-    <t>forvent_klare_16</t>
-  </si>
-  <si>
-    <t>forvent_forberedt_16</t>
-  </si>
-  <si>
-    <t>forvent_deltar_16</t>
-  </si>
-  <si>
-    <t>forvent_fagamb_16</t>
-  </si>
-  <si>
-    <t>indx_forvent4</t>
-  </si>
-  <si>
     <t>praksis_forber_14</t>
   </si>
   <si>
@@ -423,43 +387,22 @@
     <t>tid_arbeid</t>
   </si>
   <si>
-    <t>DIGITALE VERKTØY</t>
-  </si>
-  <si>
-    <t>Digitale verktøy brukes på en slik måte at jeg blir aktivt involvert i undervisningen</t>
-  </si>
-  <si>
-    <t>digitale_aktivt_18</t>
-  </si>
-  <si>
-    <t>De faglig ansatte har nødvendig kompetanse til å bruke digitale verktøy i undervisningen</t>
-  </si>
-  <si>
-    <t>digitale_kompet_18</t>
-  </si>
-  <si>
-    <t>Jeg får opplæring i å bruke digitale verktøy/programmer som er relevante for fagområdet</t>
-  </si>
-  <si>
-    <t>digitale_opplaer_18</t>
-  </si>
-  <si>
-    <t>Bruken av digital læringsplattform fungerer godt på studieprogrammet mitt</t>
-  </si>
-  <si>
-    <t>digitale_laerplatt_18</t>
-  </si>
-  <si>
-    <t>INDEKS DIGITALE VERKTØY</t>
-  </si>
-  <si>
-    <t>indx_digit4</t>
-  </si>
-  <si>
     <t>overord_altialt_13</t>
   </si>
   <si>
+    <t>Studiebarometeret 2022</t>
+  </si>
+  <si>
+    <t>Andel heltid</t>
+  </si>
+  <si>
+    <t>progresjon</t>
+  </si>
+  <si>
     <t>Format</t>
+  </si>
+  <si>
+    <t>prosent</t>
   </si>
   <si>
     <t>Utheving</t>
@@ -828,10 +771,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11175198-0FD8-474C-BC80-0C4ED23782B1}">
-  <dimension ref="A1:G71"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G1"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -860,15 +803,15 @@
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
@@ -893,7 +836,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="E4" s="2" t="b">
         <v>0</v>
@@ -918,7 +861,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E6" s="2" t="b">
         <v>0</v>
@@ -931,7 +874,7 @@
         <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E7" s="2" t="b">
         <v>0</v>
@@ -944,7 +887,7 @@
         <v>12</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E8" s="2" t="b">
         <v>0</v>
@@ -957,7 +900,7 @@
         <v>13</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E9" s="2" t="b">
         <v>0</v>
@@ -970,7 +913,7 @@
         <v>14</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E10" s="2" t="b">
         <v>0</v>
@@ -983,7 +926,7 @@
         <v>15</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E11" s="2" t="b">
         <v>0</v>
@@ -993,10 +936,10 @@
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E12" s="2" t="b">
         <v>0</v>
@@ -1006,10 +949,10 @@
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E13" s="2" t="b">
         <v>0</v>
@@ -1022,7 +965,7 @@
         <v>16</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E14" s="2" t="b">
         <v>0</v>
@@ -1035,7 +978,7 @@
         <v>17</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E15" s="2" t="b">
         <v>0</v>
@@ -1048,701 +991,596 @@
         <v>18</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E16" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G16" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>73</v>
+        <v>26</v>
       </c>
       <c r="C17"/>
       <c r="E17" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E18" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E19" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E20" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E21" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E22" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G22" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="C23"/>
       <c r="E23" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E24" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E25" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E26" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E27" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E28" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G28" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B29" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="C29"/>
       <c r="E29" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E30" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31"/>
       <c r="B31"/>
       <c r="C31" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E31" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E32" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33"/>
       <c r="B33"/>
       <c r="C33" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E33" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34"/>
-      <c r="B34"/>
-      <c r="C34" t="s">
-        <v>37</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="G33" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34"/>
       <c r="E34" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>38</v>
-      </c>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35"/>
       <c r="B35" t="s">
-        <v>59</v>
-      </c>
-      <c r="C35"/>
+        <v>45</v>
+      </c>
+      <c r="C35" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="E35" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36"/>
-      <c r="B36"/>
-      <c r="C36" t="s">
-        <v>39</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>104</v>
-      </c>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36"/>
       <c r="E36" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37"/>
       <c r="B37"/>
       <c r="C37" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E37" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38"/>
       <c r="B38"/>
       <c r="C38" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E38" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39"/>
       <c r="B39"/>
       <c r="C39" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E39" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>43</v>
-      </c>
-      <c r="B40" t="s">
-        <v>75</v>
-      </c>
-      <c r="C40"/>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40"/>
+      <c r="B40"/>
+      <c r="C40" t="s">
+        <v>50</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>105</v>
+      </c>
       <c r="E40" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41"/>
-      <c r="B41" t="s">
-        <v>45</v>
-      </c>
+      <c r="B41"/>
       <c r="C41" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E41" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G41" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B42" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C42"/>
       <c r="E42" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43"/>
       <c r="B43"/>
       <c r="C43" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E43" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44"/>
       <c r="B44"/>
       <c r="C44" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E44" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45"/>
       <c r="B45"/>
       <c r="C45" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E45" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46"/>
       <c r="B46"/>
       <c r="C46" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E46" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47"/>
       <c r="B47"/>
       <c r="C47" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E47" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>52</v>
-      </c>
-      <c r="B48" t="s">
-        <v>73</v>
-      </c>
-      <c r="C48"/>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48"/>
+      <c r="B48"/>
+      <c r="C48" t="s">
+        <v>59</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>112</v>
+      </c>
       <c r="E48" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49"/>
-      <c r="B49"/>
-      <c r="C49" t="s">
-        <v>53</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>114</v>
-      </c>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>60</v>
+      </c>
+      <c r="B49" t="s">
+        <v>61</v>
+      </c>
+      <c r="C49"/>
       <c r="E49" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50"/>
       <c r="B50"/>
       <c r="C50" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E50" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51"/>
       <c r="B51"/>
       <c r="C51" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E51" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52"/>
       <c r="B52"/>
       <c r="C52" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E52" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53"/>
-      <c r="B53"/>
+        <v>1</v>
+      </c>
+      <c r="G52" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E53" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>58</v>
-      </c>
-      <c r="B54" t="s">
-        <v>59</v>
-      </c>
-      <c r="C54"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C54" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="E54" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55"/>
-      <c r="B55"/>
-      <c r="C55" t="s">
-        <v>60</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>119</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>19</v>
+      </c>
+      <c r="B55" t="s">
+        <v>66</v>
+      </c>
+      <c r="C55"/>
       <c r="E55" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56"/>
       <c r="B56"/>
       <c r="C56" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="E56" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57"/>
       <c r="B57"/>
       <c r="C57" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>121</v>
+        <v>84</v>
       </c>
       <c r="E57" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58"/>
       <c r="B58"/>
       <c r="C58" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>122</v>
+        <v>83</v>
       </c>
       <c r="E58" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59"/>
       <c r="B59"/>
       <c r="C59" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>123</v>
+        <v>85</v>
       </c>
       <c r="E59" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60"/>
       <c r="B60"/>
       <c r="C60" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>124</v>
+        <v>86</v>
       </c>
       <c r="E60" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>66</v>
-      </c>
-      <c r="B61" t="s">
-        <v>67</v>
-      </c>
-      <c r="C61"/>
-      <c r="E61" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62"/>
-      <c r="B62"/>
-      <c r="C62" t="s">
-        <v>68</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E62" s="2" t="b">
+      <c r="G60" s="2" t="b">
         <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63"/>
-      <c r="B63"/>
-      <c r="C63" t="s">
-        <v>69</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E63" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64"/>
-      <c r="B64"/>
-      <c r="C64" t="s">
-        <v>70</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E64" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C65" t="s">
-        <v>71</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E65" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E66" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C67" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E67" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C68" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E68" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C69" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E69" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C70" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E70" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C71" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E71" s="2" t="b">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
